--- a/input/data/dt/CAE_DT_armonizado.xlsx
+++ b/input/data/dt/CAE_DT_armonizado.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\GitHub\proyecto_sindicalizacion\output\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\GitHub\proyecto_sindicalizacion\input\data\dt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8EDEFE3-455D-46CF-AE97-DD00F371BAA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB16E66-E1C3-42C8-AAC6-A0838FCD3E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19200" yWindow="-1215" windowWidth="19200" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-1335" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="102">
   <si>
     <t>id_cae2</t>
   </si>
@@ -326,9 +326,6 @@
   </si>
   <si>
     <t>03</t>
-  </si>
-  <si>
-    <t>97, 98</t>
   </si>
 </sst>
 </file>
@@ -815,10 +812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70:B75"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2320,24 +2317,41 @@
       <c r="D88">
         <v>42</v>
       </c>
-      <c r="E88" t="s">
-        <v>102</v>
+      <c r="E88">
+        <v>97</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C89">
+        <v>41</v>
+      </c>
+      <c r="D89">
+        <v>42</v>
+      </c>
+      <c r="E89">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90">
         <v>88</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B90" t="s">
         <v>90</v>
       </c>
-      <c r="C89">
+      <c r="C90">
         <v>863</v>
       </c>
-      <c r="D89">
+      <c r="D90">
         <v>43</v>
       </c>
-      <c r="E89">
+      <c r="E90">
         <v>99</v>
       </c>
     </row>

--- a/input/data/dt/CAE_DT_armonizado.xlsx
+++ b/input/data/dt/CAE_DT_armonizado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\GitHub\proyecto_sindicalizacion\input\data\dt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB16E66-E1C3-42C8-AAC6-A0838FCD3E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662F9BCA-8C78-4E1A-9479-35D85F686AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-1335" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -814,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E90" sqref="E90"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1441,7 +1441,7 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C37">
@@ -1570,7 +1570,7 @@
         <v>20</v>
       </c>
       <c r="E44">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">

--- a/input/data/dt/CAE_DT_armonizado.xlsx
+++ b/input/data/dt/CAE_DT_armonizado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\GitHub\proyecto_sindicalizacion\input\data\dt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662F9BCA-8C78-4E1A-9479-35D85F686AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B13DF57-7D7B-44CA-8E5B-C6330B0B482C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -814,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1407,14 +1407,14 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C35">
         <v>8498</v>
       </c>
       <c r="D35">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E35">
         <v>35</v>

--- a/input/data/dt/CAE_DT_armonizado.xlsx
+++ b/input/data/dt/CAE_DT_armonizado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\GitHub\proyecto_sindicalizacion\input\data\dt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B13DF57-7D7B-44CA-8E5B-C6330B0B482C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3863AA38-9255-4F9D-AD11-BF9002A9CCB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="122">
   <si>
     <t>id_cae2</t>
   </si>
@@ -326,6 +326,66 @@
   </si>
   <si>
     <t>03</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>CAENES_1d</t>
   </si>
 </sst>
 </file>
@@ -812,10 +872,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E90"/>
+  <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -825,7 +885,7 @@
     <col min="5" max="5" width="13.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -841,8 +901,11 @@
       <c r="E1" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -858,8 +921,11 @@
       <c r="E2" s="13" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -875,8 +941,11 @@
       <c r="E3" s="13" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -892,8 +961,11 @@
       <c r="E4" s="13" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -909,8 +981,11 @@
       <c r="E5" s="13" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -926,8 +1001,11 @@
       <c r="E6" s="13" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -943,8 +1021,11 @@
       <c r="E7" s="13" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -960,8 +1041,11 @@
       <c r="E8" s="13" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -977,8 +1061,11 @@
       <c r="E9" s="13" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -994,8 +1081,11 @@
       <c r="E10" s="13" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1011,8 +1101,11 @@
       <c r="E11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1028,8 +1121,11 @@
       <c r="E12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1045,8 +1141,11 @@
       <c r="E13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1062,8 +1161,11 @@
       <c r="E14">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1079,8 +1181,11 @@
       <c r="E15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1096,8 +1201,11 @@
       <c r="E16">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1113,8 +1221,11 @@
       <c r="E17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1130,8 +1241,11 @@
       <c r="E18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1147,8 +1261,11 @@
       <c r="E19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1164,8 +1281,11 @@
       <c r="E20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1181,8 +1301,11 @@
       <c r="E21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1198,8 +1321,11 @@
       <c r="E22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1215,8 +1341,11 @@
       <c r="E23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1232,8 +1361,11 @@
       <c r="E24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1249,8 +1381,11 @@
       <c r="E25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F25" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1266,8 +1401,11 @@
       <c r="E26">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F26" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1283,8 +1421,11 @@
       <c r="E27">
         <v>27</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1300,8 +1441,11 @@
       <c r="E28">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1317,8 +1461,11 @@
       <c r="E29">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F29" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1334,8 +1481,11 @@
       <c r="E30">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F30" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1351,8 +1501,11 @@
       <c r="E31">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F31" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1368,8 +1521,11 @@
       <c r="E32">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F32" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1385,8 +1541,11 @@
       <c r="E33">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F33" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1402,8 +1561,11 @@
       <c r="E34">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F34" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1419,8 +1581,11 @@
       <c r="E35">
         <v>35</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F35" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1436,8 +1601,11 @@
       <c r="E36">
         <v>36</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F36" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1453,8 +1621,11 @@
       <c r="E37">
         <v>37</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F37" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1470,8 +1641,11 @@
       <c r="E38">
         <v>38</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F38" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1487,8 +1661,11 @@
       <c r="E39">
         <v>39</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F39" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1504,8 +1681,11 @@
       <c r="E40">
         <v>41</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F40" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1521,8 +1701,11 @@
       <c r="E41">
         <v>42</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F41" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1538,8 +1721,11 @@
       <c r="E42">
         <v>43</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F42" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1555,8 +1741,11 @@
       <c r="E43">
         <v>45</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F43" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1572,8 +1761,11 @@
       <c r="E44">
         <v>47</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F44" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1589,8 +1781,11 @@
       <c r="E45">
         <v>48</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F45" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1606,8 +1801,11 @@
       <c r="E46">
         <v>49</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F46" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1623,8 +1821,11 @@
       <c r="E47">
         <v>50</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F47" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1640,8 +1841,11 @@
       <c r="E48">
         <v>51</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F48" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1657,8 +1861,11 @@
       <c r="E49">
         <v>52</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F49" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1674,8 +1881,11 @@
       <c r="E50">
         <v>53</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F50" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1691,8 +1901,11 @@
       <c r="E51">
         <v>55</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F51" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1708,8 +1921,11 @@
       <c r="E52">
         <v>56</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F52" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1725,8 +1941,11 @@
       <c r="E53">
         <v>58</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F53" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1742,8 +1961,11 @@
       <c r="E54">
         <v>59</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F54" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1759,8 +1981,11 @@
       <c r="E55">
         <v>60</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F55" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1776,8 +2001,11 @@
       <c r="E56">
         <v>61</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F56" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1793,8 +2021,11 @@
       <c r="E57">
         <v>62</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F57" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1810,8 +2041,11 @@
       <c r="E58">
         <v>63</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F58" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1827,8 +2061,11 @@
       <c r="E59">
         <v>64</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F59" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1844,8 +2081,11 @@
       <c r="E60">
         <v>65</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F60" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1861,8 +2101,11 @@
       <c r="E61">
         <v>66</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F61" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1878,8 +2121,11 @@
       <c r="E62">
         <v>68</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F62" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1895,8 +2141,11 @@
       <c r="E63">
         <v>69</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F63" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1912,8 +2161,11 @@
       <c r="E64">
         <v>70</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F64" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
@@ -1929,8 +2181,11 @@
       <c r="E65">
         <v>71</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F65" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
@@ -1946,8 +2201,11 @@
       <c r="E66">
         <v>72</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F66" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
@@ -1963,8 +2221,11 @@
       <c r="E67">
         <v>73</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F67" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
@@ -1980,8 +2241,11 @@
       <c r="E68">
         <v>74</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F68" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
@@ -1997,8 +2261,11 @@
       <c r="E69">
         <v>75</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F69" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2014,8 +2281,11 @@
       <c r="E70">
         <v>77</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F70" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2031,8 +2301,11 @@
       <c r="E71">
         <v>78</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F71" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2048,8 +2321,11 @@
       <c r="E72">
         <v>79</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F72" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2065,8 +2341,11 @@
       <c r="E73">
         <v>80</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F73" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2082,8 +2361,11 @@
       <c r="E74">
         <v>81</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F74" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2099,8 +2381,11 @@
       <c r="E75">
         <v>82</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F75" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2116,8 +2401,11 @@
       <c r="E76">
         <v>84</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F76" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2133,8 +2421,11 @@
       <c r="E77">
         <v>85</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F77" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2150,8 +2441,11 @@
       <c r="E78">
         <v>86</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F78" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2167,8 +2461,11 @@
       <c r="E79">
         <v>87</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F79" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2184,8 +2481,11 @@
       <c r="E80">
         <v>88</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F80" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2201,8 +2501,11 @@
       <c r="E81">
         <v>90</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F81" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2218,8 +2521,11 @@
       <c r="E82">
         <v>91</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2235,8 +2541,11 @@
       <c r="E83">
         <v>92</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F83" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2252,8 +2561,11 @@
       <c r="E84">
         <v>93</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F84" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2269,8 +2581,11 @@
       <c r="E85">
         <v>94</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F85" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2286,8 +2601,11 @@
       <c r="E86">
         <v>95</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F86" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2303,8 +2621,11 @@
       <c r="E87">
         <v>96</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F87" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2320,8 +2641,11 @@
       <c r="E88">
         <v>97</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F88" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>87</v>
       </c>
@@ -2337,8 +2661,11 @@
       <c r="E89">
         <v>98</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F89" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>88</v>
       </c>
@@ -2353,6 +2680,9 @@
       </c>
       <c r="E90">
         <v>99</v>
+      </c>
+      <c r="F90" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/input/data/dt/CAE_DT_armonizado.xlsx
+++ b/input/data/dt/CAE_DT_armonizado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\GitHub\proyecto_sindicalizacion\input\data\dt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3863AA38-9255-4F9D-AD11-BF9002A9CCB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C5FEE7-1C75-4DC0-855C-7D8C55EE3BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-1335" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="123">
   <si>
     <t>id_cae2</t>
   </si>
@@ -386,6 +386,9 @@
   </si>
   <si>
     <t>CAENES_1d</t>
+  </si>
+  <si>
+    <t>ID2</t>
   </si>
 </sst>
 </file>
@@ -872,20 +875,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F90"/>
+  <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="124.08984375" customWidth="1"/>
-    <col min="4" max="4" width="11.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.26953125" customWidth="1"/>
+    <col min="4" max="5" width="11.453125" customWidth="1"/>
+    <col min="6" max="6" width="13.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -899,13 +902,16 @@
         <v>91</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -918,14 +924,17 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -938,14 +947,17 @@
       <c r="D3">
         <v>2</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -958,14 +970,17 @@
       <c r="D4">
         <v>3</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -978,14 +993,17 @@
       <c r="D5">
         <v>4</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -998,14 +1016,17 @@
       <c r="D6">
         <v>5</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1018,14 +1039,17 @@
       <c r="D7">
         <v>5</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1038,14 +1062,17 @@
       <c r="D8">
         <v>5</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1058,14 +1085,17 @@
       <c r="D9">
         <v>5</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1078,14 +1108,17 @@
       <c r="D10">
         <v>5</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1099,13 +1132,16 @@
         <v>6</v>
       </c>
       <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
         <v>10</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1119,13 +1155,16 @@
         <v>6</v>
       </c>
       <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
         <v>11</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1139,13 +1178,16 @@
         <v>6</v>
       </c>
       <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
         <v>12</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1159,13 +1201,16 @@
         <v>7</v>
       </c>
       <c r="E14">
+        <v>6</v>
+      </c>
+      <c r="F14">
         <v>14</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1179,13 +1224,16 @@
         <v>7</v>
       </c>
       <c r="E15">
+        <v>6</v>
+      </c>
+      <c r="F15">
         <v>14</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1199,13 +1247,16 @@
         <v>7</v>
       </c>
       <c r="E16">
+        <v>6</v>
+      </c>
+      <c r="F16">
         <v>14</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1219,13 +1270,16 @@
         <v>8</v>
       </c>
       <c r="E17">
+        <v>7</v>
+      </c>
+      <c r="F17">
         <v>16</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1239,13 +1293,16 @@
         <v>8</v>
       </c>
       <c r="E18">
+        <v>7</v>
+      </c>
+      <c r="F18">
         <v>17</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1259,13 +1316,16 @@
         <v>9</v>
       </c>
       <c r="E19">
+        <v>8</v>
+      </c>
+      <c r="F19">
         <v>18</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1279,13 +1339,16 @@
         <v>10</v>
       </c>
       <c r="E20">
+        <v>9</v>
+      </c>
+      <c r="F20">
         <v>19</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1299,13 +1362,16 @@
         <v>10</v>
       </c>
       <c r="E21">
+        <v>9</v>
+      </c>
+      <c r="F21">
         <v>20</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1319,13 +1385,16 @@
         <v>9</v>
       </c>
       <c r="E22">
+        <v>8</v>
+      </c>
+      <c r="F22">
         <v>21</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1339,13 +1408,16 @@
         <v>10</v>
       </c>
       <c r="E23">
+        <v>9</v>
+      </c>
+      <c r="F23">
         <v>22</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1359,13 +1431,16 @@
         <v>9</v>
       </c>
       <c r="E24">
+        <v>8</v>
+      </c>
+      <c r="F24">
         <v>23</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1379,13 +1454,16 @@
         <v>11</v>
       </c>
       <c r="E25">
+        <v>10</v>
+      </c>
+      <c r="F25">
         <v>24</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1399,13 +1477,16 @@
         <v>11</v>
       </c>
       <c r="E26">
+        <v>10</v>
+      </c>
+      <c r="F26">
         <v>25</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1419,13 +1500,16 @@
         <v>11</v>
       </c>
       <c r="E27">
+        <v>10</v>
+      </c>
+      <c r="F27">
         <v>27</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1439,13 +1523,16 @@
         <v>11</v>
       </c>
       <c r="E28">
+        <v>10</v>
+      </c>
+      <c r="F28">
         <v>27</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1459,13 +1546,16 @@
         <v>11</v>
       </c>
       <c r="E29">
+        <v>10</v>
+      </c>
+      <c r="F29">
         <v>27</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1479,13 +1569,16 @@
         <v>12</v>
       </c>
       <c r="E30">
+        <v>10</v>
+      </c>
+      <c r="F30">
         <v>30</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1499,13 +1592,16 @@
         <v>12</v>
       </c>
       <c r="E31">
+        <v>10</v>
+      </c>
+      <c r="F31">
         <v>30</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1519,13 +1615,16 @@
         <v>13</v>
       </c>
       <c r="E32">
+        <v>11</v>
+      </c>
+      <c r="F32">
         <v>31</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1539,13 +1638,16 @@
         <v>13</v>
       </c>
       <c r="E33">
+        <v>11</v>
+      </c>
+      <c r="F33">
         <v>32</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1559,13 +1661,16 @@
         <v>11</v>
       </c>
       <c r="E34">
+        <v>10</v>
+      </c>
+      <c r="F34">
         <v>33</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1579,13 +1684,16 @@
         <v>14</v>
       </c>
       <c r="E35">
+        <v>12</v>
+      </c>
+      <c r="F35">
         <v>35</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1599,33 +1707,39 @@
         <v>14</v>
       </c>
       <c r="E36">
+        <v>12</v>
+      </c>
+      <c r="F36">
         <v>36</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C37">
         <v>1898</v>
       </c>
       <c r="D37">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E37">
+        <v>12</v>
+      </c>
+      <c r="F37">
         <v>37</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1639,13 +1753,16 @@
         <v>15</v>
       </c>
       <c r="E38">
+        <v>12</v>
+      </c>
+      <c r="F38">
         <v>38</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1659,13 +1776,16 @@
         <v>15</v>
       </c>
       <c r="E39">
+        <v>12</v>
+      </c>
+      <c r="F39">
         <v>39</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1679,13 +1799,16 @@
         <v>16</v>
       </c>
       <c r="E40">
+        <v>13</v>
+      </c>
+      <c r="F40">
         <v>41</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1699,13 +1822,16 @@
         <v>17</v>
       </c>
       <c r="E41">
+        <v>13</v>
+      </c>
+      <c r="F41">
         <v>42</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1719,13 +1845,16 @@
         <v>18</v>
       </c>
       <c r="E42">
+        <v>13</v>
+      </c>
+      <c r="F42">
         <v>43</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1739,13 +1868,16 @@
         <v>19</v>
       </c>
       <c r="E43">
+        <v>14</v>
+      </c>
+      <c r="F43">
         <v>45</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1759,13 +1891,16 @@
         <v>20</v>
       </c>
       <c r="E44">
+        <v>15</v>
+      </c>
+      <c r="F44">
         <v>47</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1779,13 +1914,16 @@
         <v>21</v>
       </c>
       <c r="E45">
+        <v>16</v>
+      </c>
+      <c r="F45">
         <v>48</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1799,13 +1937,16 @@
         <v>22</v>
       </c>
       <c r="E46">
+        <v>17</v>
+      </c>
+      <c r="F46">
         <v>49</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1819,13 +1960,16 @@
         <v>23</v>
       </c>
       <c r="E47">
+        <v>17</v>
+      </c>
+      <c r="F47">
         <v>50</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1839,13 +1983,16 @@
         <v>23</v>
       </c>
       <c r="E48">
+        <v>17</v>
+      </c>
+      <c r="F48">
         <v>51</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1859,13 +2006,16 @@
         <v>24</v>
       </c>
       <c r="E49">
+        <v>18</v>
+      </c>
+      <c r="F49">
         <v>52</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1879,13 +2029,16 @@
         <v>24</v>
       </c>
       <c r="E50">
+        <v>18</v>
+      </c>
+      <c r="F50">
         <v>53</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1899,13 +2052,16 @@
         <v>25</v>
       </c>
       <c r="E51">
+        <v>19</v>
+      </c>
+      <c r="F51">
         <v>55</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1919,13 +2075,16 @@
         <v>26</v>
       </c>
       <c r="E52">
+        <v>20</v>
+      </c>
+      <c r="F52">
         <v>56</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1939,13 +2098,16 @@
         <v>27</v>
       </c>
       <c r="E53">
+        <v>21</v>
+      </c>
+      <c r="F53">
         <v>58</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1959,13 +2121,16 @@
         <v>27</v>
       </c>
       <c r="E54">
+        <v>21</v>
+      </c>
+      <c r="F54">
         <v>59</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1979,13 +2144,16 @@
         <v>27</v>
       </c>
       <c r="E55">
+        <v>21</v>
+      </c>
+      <c r="F55">
         <v>60</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1999,13 +2167,16 @@
         <v>28</v>
       </c>
       <c r="E56">
+        <v>22</v>
+      </c>
+      <c r="F56">
         <v>61</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2019,13 +2190,16 @@
         <v>29</v>
       </c>
       <c r="E57">
+        <v>23</v>
+      </c>
+      <c r="F57">
         <v>62</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2039,13 +2213,16 @@
         <v>29</v>
       </c>
       <c r="E58">
+        <v>23</v>
+      </c>
+      <c r="F58">
         <v>63</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2059,13 +2236,16 @@
         <v>30</v>
       </c>
       <c r="E59">
+        <v>24</v>
+      </c>
+      <c r="F59">
         <v>64</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2079,13 +2259,16 @@
         <v>30</v>
       </c>
       <c r="E60">
+        <v>24</v>
+      </c>
+      <c r="F60">
         <v>65</v>
       </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2099,13 +2282,16 @@
         <v>30</v>
       </c>
       <c r="E61">
+        <v>24</v>
+      </c>
+      <c r="F61">
         <v>66</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2119,13 +2305,16 @@
         <v>31</v>
       </c>
       <c r="E62">
+        <v>25</v>
+      </c>
+      <c r="F62">
         <v>68</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2139,13 +2328,16 @@
         <v>32</v>
       </c>
       <c r="E63">
+        <v>26</v>
+      </c>
+      <c r="F63">
         <v>69</v>
       </c>
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2159,13 +2351,16 @@
         <v>32</v>
       </c>
       <c r="E64">
+        <v>26</v>
+      </c>
+      <c r="F64">
         <v>70</v>
       </c>
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2179,13 +2374,16 @@
         <v>32</v>
       </c>
       <c r="E65">
+        <v>26</v>
+      </c>
+      <c r="F65">
         <v>71</v>
       </c>
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2199,13 +2397,16 @@
         <v>32</v>
       </c>
       <c r="E66">
+        <v>26</v>
+      </c>
+      <c r="F66">
         <v>72</v>
       </c>
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2219,13 +2420,16 @@
         <v>32</v>
       </c>
       <c r="E67">
+        <v>26</v>
+      </c>
+      <c r="F67">
         <v>73</v>
       </c>
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2239,13 +2443,16 @@
         <v>32</v>
       </c>
       <c r="E68">
+        <v>26</v>
+      </c>
+      <c r="F68">
         <v>74</v>
       </c>
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2259,13 +2466,16 @@
         <v>32</v>
       </c>
       <c r="E69">
+        <v>26</v>
+      </c>
+      <c r="F69">
         <v>75</v>
       </c>
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2279,13 +2489,16 @@
         <v>33</v>
       </c>
       <c r="E70">
+        <v>26</v>
+      </c>
+      <c r="F70">
         <v>77</v>
       </c>
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2299,13 +2512,16 @@
         <v>33</v>
       </c>
       <c r="E71">
+        <v>26</v>
+      </c>
+      <c r="F71">
         <v>78</v>
       </c>
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2319,13 +2535,16 @@
         <v>33</v>
       </c>
       <c r="E72">
+        <v>26</v>
+      </c>
+      <c r="F72">
         <v>79</v>
       </c>
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2339,13 +2558,16 @@
         <v>33</v>
       </c>
       <c r="E73">
+        <v>26</v>
+      </c>
+      <c r="F73">
         <v>80</v>
       </c>
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2359,13 +2581,16 @@
         <v>33</v>
       </c>
       <c r="E74">
+        <v>26</v>
+      </c>
+      <c r="F74">
         <v>81</v>
       </c>
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2379,13 +2604,16 @@
         <v>33</v>
       </c>
       <c r="E75">
+        <v>26</v>
+      </c>
+      <c r="F75">
         <v>82</v>
       </c>
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2399,13 +2627,16 @@
         <v>34</v>
       </c>
       <c r="E76">
+        <v>27</v>
+      </c>
+      <c r="F76">
         <v>84</v>
       </c>
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2419,13 +2650,16 @@
         <v>35</v>
       </c>
       <c r="E77">
+        <v>28</v>
+      </c>
+      <c r="F77">
         <v>85</v>
       </c>
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2439,13 +2673,16 @@
         <v>36</v>
       </c>
       <c r="E78">
+        <v>29</v>
+      </c>
+      <c r="F78">
         <v>86</v>
       </c>
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2459,13 +2696,16 @@
         <v>37</v>
       </c>
       <c r="E79">
+        <v>30</v>
+      </c>
+      <c r="F79">
         <v>87</v>
       </c>
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2479,13 +2719,16 @@
         <v>38</v>
       </c>
       <c r="E80">
+        <v>30</v>
+      </c>
+      <c r="F80">
         <v>88</v>
       </c>
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2499,13 +2742,16 @@
         <v>39</v>
       </c>
       <c r="E81">
+        <v>31</v>
+      </c>
+      <c r="F81">
         <v>90</v>
       </c>
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2519,13 +2765,16 @@
         <v>39</v>
       </c>
       <c r="E82">
+        <v>31</v>
+      </c>
+      <c r="F82">
         <v>91</v>
       </c>
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2539,13 +2788,16 @@
         <v>39</v>
       </c>
       <c r="E83">
+        <v>31</v>
+      </c>
+      <c r="F83">
         <v>92</v>
       </c>
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2559,13 +2811,16 @@
         <v>39</v>
       </c>
       <c r="E84">
+        <v>31</v>
+      </c>
+      <c r="F84">
         <v>93</v>
       </c>
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2579,13 +2834,16 @@
         <v>40</v>
       </c>
       <c r="E85">
+        <v>32</v>
+      </c>
+      <c r="F85">
         <v>94</v>
       </c>
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2599,13 +2857,16 @@
         <v>41</v>
       </c>
       <c r="E86">
+        <v>32</v>
+      </c>
+      <c r="F86">
         <v>95</v>
       </c>
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2619,13 +2880,16 @@
         <v>42</v>
       </c>
       <c r="E87">
+        <v>33</v>
+      </c>
+      <c r="F87">
         <v>96</v>
       </c>
-      <c r="F87" t="s">
+      <c r="G87" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2639,13 +2903,16 @@
         <v>42</v>
       </c>
       <c r="E88">
+        <v>33</v>
+      </c>
+      <c r="F88">
         <v>97</v>
       </c>
-      <c r="F88" t="s">
+      <c r="G88" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>87</v>
       </c>
@@ -2659,13 +2926,16 @@
         <v>42</v>
       </c>
       <c r="E89">
+        <v>33</v>
+      </c>
+      <c r="F89">
         <v>98</v>
       </c>
-      <c r="F89" t="s">
+      <c r="G89" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>88</v>
       </c>
@@ -2679,9 +2949,12 @@
         <v>43</v>
       </c>
       <c r="E90">
+        <v>34</v>
+      </c>
+      <c r="F90">
         <v>99</v>
       </c>
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>110</v>
       </c>
     </row>

--- a/input/data/dt/CAE_DT_armonizado.xlsx
+++ b/input/data/dt/CAE_DT_armonizado.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\GitHub\proyecto_sindicalizacion\input\data\dt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C5FEE7-1C75-4DC0-855C-7D8C55EE3BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF4153E-1904-49F3-A424-FAA61ED41CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-1335" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19200" yWindow="-1215" windowWidth="19200" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="124">
   <si>
     <t>id_cae2</t>
   </si>
@@ -389,6 +389,9 @@
   </si>
   <si>
     <t>ID2</t>
+  </si>
+  <si>
+    <t>codigoactividad</t>
   </si>
 </sst>
 </file>
@@ -875,20 +878,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G90"/>
+  <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E90" sqref="E90"/>
+    <sheetView tabSelected="1" topLeftCell="B34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="124.08984375" customWidth="1"/>
-    <col min="4" max="5" width="11.453125" customWidth="1"/>
-    <col min="6" max="6" width="13.26953125" customWidth="1"/>
+    <col min="4" max="6" width="11.453125" customWidth="1"/>
+    <col min="7" max="7" width="13.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -905,13 +908,16 @@
         <v>122</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -927,14 +933,17 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -950,14 +959,17 @@
       <c r="E3">
         <v>2</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -973,14 +985,17 @@
       <c r="E4">
         <v>3</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -996,14 +1011,17 @@
       <c r="E5">
         <v>4</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1019,14 +1037,17 @@
       <c r="E6">
         <v>4</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1042,14 +1063,17 @@
       <c r="E7">
         <v>4</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1065,14 +1089,17 @@
       <c r="E8">
         <v>4</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1088,14 +1115,17 @@
       <c r="E9">
         <v>4</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1111,14 +1141,17 @@
       <c r="E10">
         <v>4</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10">
+        <v>9</v>
+      </c>
+      <c r="G10" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1137,11 +1170,14 @@
       <c r="F11">
         <v>10</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1160,11 +1196,14 @@
       <c r="F12">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12">
+        <v>11</v>
+      </c>
+      <c r="H12" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1183,11 +1222,14 @@
       <c r="F13">
         <v>12</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13">
+        <v>12</v>
+      </c>
+      <c r="H13" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1204,13 +1246,16 @@
         <v>6</v>
       </c>
       <c r="F14">
+        <v>13</v>
+      </c>
+      <c r="G14">
         <v>14</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1229,11 +1274,14 @@
       <c r="F15">
         <v>14</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15">
+        <v>14</v>
+      </c>
+      <c r="H15" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1250,13 +1298,16 @@
         <v>6</v>
       </c>
       <c r="F16">
+        <v>15</v>
+      </c>
+      <c r="G16">
         <v>14</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1275,11 +1326,14 @@
       <c r="F17">
         <v>16</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17">
+        <v>16</v>
+      </c>
+      <c r="H17" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1298,11 +1352,14 @@
       <c r="F18">
         <v>17</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18">
+        <v>17</v>
+      </c>
+      <c r="H18" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1321,11 +1378,14 @@
       <c r="F19">
         <v>18</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19">
+        <v>18</v>
+      </c>
+      <c r="H19" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1344,11 +1404,14 @@
       <c r="F20">
         <v>19</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20">
+        <v>19</v>
+      </c>
+      <c r="H20" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1367,11 +1430,14 @@
       <c r="F21">
         <v>20</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21">
+        <v>20</v>
+      </c>
+      <c r="H21" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1390,11 +1456,14 @@
       <c r="F22">
         <v>21</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22">
+        <v>21</v>
+      </c>
+      <c r="H22" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1413,11 +1482,14 @@
       <c r="F23">
         <v>22</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23">
+        <v>22</v>
+      </c>
+      <c r="H23" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1436,11 +1508,14 @@
       <c r="F24">
         <v>23</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24">
+        <v>23</v>
+      </c>
+      <c r="H24" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1459,11 +1534,14 @@
       <c r="F25">
         <v>24</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25">
+        <v>24</v>
+      </c>
+      <c r="H25" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1482,11 +1560,14 @@
       <c r="F26">
         <v>25</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26">
+        <v>25</v>
+      </c>
+      <c r="H26" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1503,13 +1584,16 @@
         <v>10</v>
       </c>
       <c r="F27">
+        <v>26</v>
+      </c>
+      <c r="G27">
         <v>27</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1528,11 +1612,14 @@
       <c r="F28">
         <v>27</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28">
+        <v>27</v>
+      </c>
+      <c r="H28" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1549,13 +1636,16 @@
         <v>10</v>
       </c>
       <c r="F29">
+        <v>28</v>
+      </c>
+      <c r="G29">
         <v>27</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1572,13 +1662,16 @@
         <v>10</v>
       </c>
       <c r="F30">
+        <v>29</v>
+      </c>
+      <c r="G30">
         <v>30</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1597,11 +1690,14 @@
       <c r="F31">
         <v>30</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31">
+        <v>30</v>
+      </c>
+      <c r="H31" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1620,11 +1716,14 @@
       <c r="F32">
         <v>31</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32">
+        <v>31</v>
+      </c>
+      <c r="H32" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1643,11 +1742,14 @@
       <c r="F33">
         <v>32</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33">
+        <v>32</v>
+      </c>
+      <c r="H33" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1666,11 +1768,14 @@
       <c r="F34">
         <v>33</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34">
+        <v>33</v>
+      </c>
+      <c r="H34" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1689,11 +1794,14 @@
       <c r="F35">
         <v>35</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35">
+        <v>35</v>
+      </c>
+      <c r="H35" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1712,11 +1820,14 @@
       <c r="F36">
         <v>36</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36">
+        <v>36</v>
+      </c>
+      <c r="H36" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1735,11 +1846,14 @@
       <c r="F37">
         <v>37</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37">
+        <v>37</v>
+      </c>
+      <c r="H37" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1758,11 +1872,14 @@
       <c r="F38">
         <v>38</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38">
+        <v>38</v>
+      </c>
+      <c r="H38" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1781,11 +1898,14 @@
       <c r="F39">
         <v>39</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39">
+        <v>39</v>
+      </c>
+      <c r="H39" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1804,11 +1924,14 @@
       <c r="F40">
         <v>41</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40">
+        <v>41</v>
+      </c>
+      <c r="H40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1827,11 +1950,14 @@
       <c r="F41">
         <v>42</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41">
+        <v>42</v>
+      </c>
+      <c r="H41" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1850,11 +1976,14 @@
       <c r="F42">
         <v>43</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42">
+        <v>43</v>
+      </c>
+      <c r="H42" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1873,11 +2002,14 @@
       <c r="F43">
         <v>45</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1894,13 +2026,16 @@
         <v>15</v>
       </c>
       <c r="F44">
+        <v>46</v>
+      </c>
+      <c r="G44">
         <v>47</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1917,13 +2052,16 @@
         <v>16</v>
       </c>
       <c r="F45">
+        <v>47</v>
+      </c>
+      <c r="G45">
         <v>48</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1942,11 +2080,14 @@
       <c r="F46">
         <v>49</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46">
+        <v>49</v>
+      </c>
+      <c r="H46" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1965,11 +2106,14 @@
       <c r="F47">
         <v>50</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47">
+        <v>50</v>
+      </c>
+      <c r="H47" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1988,11 +2132,14 @@
       <c r="F48">
         <v>51</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48">
+        <v>51</v>
+      </c>
+      <c r="H48" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2011,11 +2158,14 @@
       <c r="F49">
         <v>52</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49">
+        <v>52</v>
+      </c>
+      <c r="H49" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2034,11 +2184,14 @@
       <c r="F50">
         <v>53</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50">
+        <v>53</v>
+      </c>
+      <c r="H50" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2057,11 +2210,14 @@
       <c r="F51">
         <v>55</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51">
+        <v>55</v>
+      </c>
+      <c r="H51" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2080,11 +2236,14 @@
       <c r="F52">
         <v>56</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52">
+        <v>56</v>
+      </c>
+      <c r="H52" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2103,11 +2262,14 @@
       <c r="F53">
         <v>58</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53">
+        <v>58</v>
+      </c>
+      <c r="H53" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2126,11 +2288,14 @@
       <c r="F54">
         <v>59</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54">
+        <v>59</v>
+      </c>
+      <c r="H54" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2149,11 +2314,14 @@
       <c r="F55">
         <v>60</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55">
+        <v>60</v>
+      </c>
+      <c r="H55" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2172,11 +2340,14 @@
       <c r="F56">
         <v>61</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G56">
+        <v>61</v>
+      </c>
+      <c r="H56" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2195,11 +2366,14 @@
       <c r="F57">
         <v>62</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G57">
+        <v>62</v>
+      </c>
+      <c r="H57" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2218,11 +2392,14 @@
       <c r="F58">
         <v>63</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G58">
+        <v>63</v>
+      </c>
+      <c r="H58" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2241,11 +2418,14 @@
       <c r="F59">
         <v>64</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G59">
+        <v>64</v>
+      </c>
+      <c r="H59" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2264,11 +2444,14 @@
       <c r="F60">
         <v>65</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G60">
+        <v>65</v>
+      </c>
+      <c r="H60" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2287,11 +2470,14 @@
       <c r="F61">
         <v>66</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61">
+        <v>66</v>
+      </c>
+      <c r="H61" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2310,11 +2496,14 @@
       <c r="F62">
         <v>68</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G62">
+        <v>68</v>
+      </c>
+      <c r="H62" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2333,11 +2522,14 @@
       <c r="F63">
         <v>69</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G63">
+        <v>69</v>
+      </c>
+      <c r="H63" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2356,11 +2548,14 @@
       <c r="F64">
         <v>70</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G64">
+        <v>70</v>
+      </c>
+      <c r="H64" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2379,11 +2574,14 @@
       <c r="F65">
         <v>71</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G65">
+        <v>71</v>
+      </c>
+      <c r="H65" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2402,11 +2600,14 @@
       <c r="F66">
         <v>72</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G66">
+        <v>72</v>
+      </c>
+      <c r="H66" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2425,11 +2626,14 @@
       <c r="F67">
         <v>73</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G67">
+        <v>73</v>
+      </c>
+      <c r="H67" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2448,11 +2652,14 @@
       <c r="F68">
         <v>74</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G68">
+        <v>74</v>
+      </c>
+      <c r="H68" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2471,11 +2678,14 @@
       <c r="F69">
         <v>75</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G69">
+        <v>75</v>
+      </c>
+      <c r="H69" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2494,11 +2704,14 @@
       <c r="F70">
         <v>77</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G70">
+        <v>77</v>
+      </c>
+      <c r="H70" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2517,11 +2730,14 @@
       <c r="F71">
         <v>78</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G71">
+        <v>78</v>
+      </c>
+      <c r="H71" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2540,11 +2756,14 @@
       <c r="F72">
         <v>79</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G72">
+        <v>79</v>
+      </c>
+      <c r="H72" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2563,11 +2782,14 @@
       <c r="F73">
         <v>80</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G73">
+        <v>80</v>
+      </c>
+      <c r="H73" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2586,11 +2808,14 @@
       <c r="F74">
         <v>81</v>
       </c>
-      <c r="G74" t="s">
+      <c r="G74">
+        <v>81</v>
+      </c>
+      <c r="H74" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2609,11 +2834,14 @@
       <c r="F75">
         <v>82</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G75">
+        <v>82</v>
+      </c>
+      <c r="H75" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2632,11 +2860,14 @@
       <c r="F76">
         <v>84</v>
       </c>
-      <c r="G76" t="s">
+      <c r="G76">
+        <v>84</v>
+      </c>
+      <c r="H76" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2655,11 +2886,14 @@
       <c r="F77">
         <v>85</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G77">
+        <v>85</v>
+      </c>
+      <c r="H77" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2678,11 +2912,14 @@
       <c r="F78">
         <v>86</v>
       </c>
-      <c r="G78" t="s">
+      <c r="G78">
+        <v>86</v>
+      </c>
+      <c r="H78" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2701,11 +2938,14 @@
       <c r="F79">
         <v>87</v>
       </c>
-      <c r="G79" t="s">
+      <c r="G79">
+        <v>87</v>
+      </c>
+      <c r="H79" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2724,11 +2964,14 @@
       <c r="F80">
         <v>88</v>
       </c>
-      <c r="G80" t="s">
+      <c r="G80">
+        <v>88</v>
+      </c>
+      <c r="H80" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2747,11 +2990,14 @@
       <c r="F81">
         <v>90</v>
       </c>
-      <c r="G81" t="s">
+      <c r="G81">
+        <v>90</v>
+      </c>
+      <c r="H81" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2770,11 +3016,14 @@
       <c r="F82">
         <v>91</v>
       </c>
-      <c r="G82" t="s">
+      <c r="G82">
+        <v>91</v>
+      </c>
+      <c r="H82" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2793,11 +3042,14 @@
       <c r="F83">
         <v>92</v>
       </c>
-      <c r="G83" t="s">
+      <c r="G83">
+        <v>92</v>
+      </c>
+      <c r="H83" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2816,11 +3068,14 @@
       <c r="F84">
         <v>93</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G84">
+        <v>93</v>
+      </c>
+      <c r="H84" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2839,11 +3094,14 @@
       <c r="F85">
         <v>94</v>
       </c>
-      <c r="G85" t="s">
+      <c r="G85">
+        <v>94</v>
+      </c>
+      <c r="H85" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2862,11 +3120,14 @@
       <c r="F86">
         <v>95</v>
       </c>
-      <c r="G86" t="s">
+      <c r="G86">
+        <v>95</v>
+      </c>
+      <c r="H86" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2885,11 +3146,14 @@
       <c r="F87">
         <v>96</v>
       </c>
-      <c r="G87" t="s">
+      <c r="G87">
+        <v>96</v>
+      </c>
+      <c r="H87" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2908,11 +3172,14 @@
       <c r="F88">
         <v>97</v>
       </c>
-      <c r="G88" t="s">
+      <c r="G88">
+        <v>97</v>
+      </c>
+      <c r="H88" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>87</v>
       </c>
@@ -2929,13 +3196,16 @@
         <v>33</v>
       </c>
       <c r="F89">
+        <v>97</v>
+      </c>
+      <c r="G89">
         <v>98</v>
       </c>
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>88</v>
       </c>
@@ -2954,7 +3224,10 @@
       <c r="F90">
         <v>99</v>
       </c>
-      <c r="G90" t="s">
+      <c r="G90">
+        <v>99</v>
+      </c>
+      <c r="H90" t="s">
         <v>110</v>
       </c>
     </row>

--- a/input/data/dt/CAE_DT_armonizado.xlsx
+++ b/input/data/dt/CAE_DT_armonizado.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\GitHub\proyecto_sindicalizacion\input\data\dt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF4153E-1904-49F3-A424-FAA61ED41CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379BE031-4C37-4D1F-A284-B5CECE403CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19200" yWindow="-1215" windowWidth="19200" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-1335" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -878,10 +891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H90"/>
+  <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F90" sqref="F90"/>
+    <sheetView tabSelected="1" topLeftCell="B43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42:D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1723,7 +1736,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1749,7 +1762,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1775,7 +1788,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1801,7 +1814,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1827,7 +1840,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1853,7 +1866,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1879,7 +1892,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1905,7 +1918,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1931,7 +1944,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1942,7 +1955,7 @@
         <v>49963</v>
       </c>
       <c r="D41">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E41">
         <v>13</v>
@@ -1957,7 +1970,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1968,7 +1981,7 @@
         <v>235308</v>
       </c>
       <c r="D42">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E42">
         <v>13</v>
@@ -1982,8 +1995,12 @@
       <c r="H42" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I42">
+        <f>D42-1</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1994,7 +2011,7 @@
         <v>88600</v>
       </c>
       <c r="D43">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E43">
         <v>14</v>
@@ -2008,8 +2025,12 @@
       <c r="H43" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I43">
+        <f t="shared" ref="I43:I90" si="0">D43-1</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2020,7 +2041,7 @@
         <v>238435</v>
       </c>
       <c r="D44">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E44">
         <v>15</v>
@@ -2034,8 +2055,12 @@
       <c r="H44" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I44">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2046,7 +2071,7 @@
         <v>621037</v>
       </c>
       <c r="D45">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E45">
         <v>16</v>
@@ -2060,8 +2085,12 @@
       <c r="H45" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I45">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2072,7 +2101,7 @@
         <v>147203</v>
       </c>
       <c r="D46">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E46">
         <v>17</v>
@@ -2086,8 +2115,12 @@
       <c r="H46" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I46">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2098,7 +2131,7 @@
         <v>3143</v>
       </c>
       <c r="D47">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E47">
         <v>17</v>
@@ -2112,8 +2145,12 @@
       <c r="H47" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I47">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2124,7 +2161,7 @@
         <v>1500</v>
       </c>
       <c r="D48">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E48">
         <v>17</v>
@@ -2138,8 +2175,12 @@
       <c r="H48" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I48">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2150,7 +2191,7 @@
         <v>39570</v>
       </c>
       <c r="D49">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E49">
         <v>18</v>
@@ -2164,8 +2205,12 @@
       <c r="H49" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I49">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2176,7 +2221,7 @@
         <v>4911</v>
       </c>
       <c r="D50">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E50">
         <v>18</v>
@@ -2190,8 +2235,12 @@
       <c r="H50" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I50">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2202,7 +2251,7 @@
         <v>20719</v>
       </c>
       <c r="D51">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E51">
         <v>19</v>
@@ -2216,8 +2265,12 @@
       <c r="H51" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I51">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2228,7 +2281,7 @@
         <v>110810</v>
       </c>
       <c r="D52">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E52">
         <v>20</v>
@@ -2242,8 +2295,12 @@
       <c r="H52" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I52">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2254,7 +2311,7 @@
         <v>9562</v>
       </c>
       <c r="D53">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E53">
         <v>21</v>
@@ -2268,8 +2325,12 @@
       <c r="H53" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I53">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2280,7 +2341,7 @@
         <v>12637</v>
       </c>
       <c r="D54">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E54">
         <v>21</v>
@@ -2294,8 +2355,12 @@
       <c r="H54" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I54">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2306,7 +2371,7 @@
         <v>5462</v>
       </c>
       <c r="D55">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E55">
         <v>21</v>
@@ -2320,8 +2385,12 @@
       <c r="H55" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I55">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2332,7 +2401,7 @@
         <v>19107</v>
       </c>
       <c r="D56">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E56">
         <v>22</v>
@@ -2346,8 +2415,12 @@
       <c r="H56" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I56">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2358,7 +2431,7 @@
         <v>51856</v>
       </c>
       <c r="D57">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E57">
         <v>23</v>
@@ -2372,8 +2445,12 @@
       <c r="H57" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I57">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2384,7 +2461,7 @@
         <v>18103</v>
       </c>
       <c r="D58">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E58">
         <v>23</v>
@@ -2398,8 +2475,12 @@
       <c r="H58" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I58">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2410,7 +2491,7 @@
         <v>119000</v>
       </c>
       <c r="D59">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E59">
         <v>24</v>
@@ -2424,8 +2505,12 @@
       <c r="H59" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I59">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2436,7 +2521,7 @@
         <v>357</v>
       </c>
       <c r="D60">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E60">
         <v>24</v>
@@ -2450,8 +2535,12 @@
       <c r="H60" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I60">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2462,7 +2551,7 @@
         <v>41874</v>
       </c>
       <c r="D61">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E61">
         <v>24</v>
@@ -2476,8 +2565,12 @@
       <c r="H61" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I61">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2488,7 +2581,7 @@
         <v>143316</v>
       </c>
       <c r="D62">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E62">
         <v>25</v>
@@ -2502,8 +2595,12 @@
       <c r="H62" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I62">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2514,7 +2611,7 @@
         <v>16444</v>
       </c>
       <c r="D63">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E63">
         <v>26</v>
@@ -2528,8 +2625,12 @@
       <c r="H63" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I63">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2540,7 +2641,7 @@
         <v>112386</v>
       </c>
       <c r="D64">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E64">
         <v>26</v>
@@ -2554,8 +2655,12 @@
       <c r="H64" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I64">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2566,7 +2671,7 @@
         <v>50686</v>
       </c>
       <c r="D65">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E65">
         <v>26</v>
@@ -2580,8 +2685,12 @@
       <c r="H65" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I65">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2592,7 +2701,7 @@
         <v>8764</v>
       </c>
       <c r="D66">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E66">
         <v>26</v>
@@ -2606,8 +2715,12 @@
       <c r="H66" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I66">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2618,7 +2731,7 @@
         <v>41278</v>
       </c>
       <c r="D67">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E67">
         <v>26</v>
@@ -2632,8 +2745,12 @@
       <c r="H67" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I67">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2644,7 +2761,7 @@
         <v>44622</v>
       </c>
       <c r="D68">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E68">
         <v>26</v>
@@ -2658,8 +2775,12 @@
       <c r="H68" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I68">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2670,7 +2791,7 @@
         <v>4442</v>
       </c>
       <c r="D69">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E69">
         <v>26</v>
@@ -2684,8 +2805,12 @@
       <c r="H69" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I69">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2696,7 +2821,7 @@
         <v>77799</v>
       </c>
       <c r="D70">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E70">
         <v>26</v>
@@ -2710,8 +2835,12 @@
       <c r="H70" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I70">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2722,7 +2851,7 @@
         <v>14845</v>
       </c>
       <c r="D71">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E71">
         <v>26</v>
@@ -2736,8 +2865,12 @@
       <c r="H71" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I71">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2748,7 +2881,7 @@
         <v>12690</v>
       </c>
       <c r="D72">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E72">
         <v>26</v>
@@ -2762,8 +2895,12 @@
       <c r="H72" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I72">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2774,7 +2911,7 @@
         <v>18134</v>
       </c>
       <c r="D73">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E73">
         <v>26</v>
@@ -2788,8 +2925,12 @@
       <c r="H73" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I73">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2800,7 +2941,7 @@
         <v>29102</v>
       </c>
       <c r="D74">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E74">
         <v>26</v>
@@ -2814,8 +2955,12 @@
       <c r="H74" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I74">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2826,7 +2971,7 @@
         <v>96619</v>
       </c>
       <c r="D75">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E75">
         <v>26</v>
@@ -2840,8 +2985,12 @@
       <c r="H75" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I75">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2852,7 +3001,7 @@
         <v>2939</v>
       </c>
       <c r="D76">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E76">
         <v>27</v>
@@ -2866,8 +3015,12 @@
       <c r="H76" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I76">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2878,7 +3031,7 @@
         <v>57947</v>
       </c>
       <c r="D77">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E77">
         <v>28</v>
@@ -2892,8 +3045,12 @@
       <c r="H77" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I77">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2904,7 +3061,7 @@
         <v>78806</v>
       </c>
       <c r="D78">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E78">
         <v>29</v>
@@ -2918,8 +3075,12 @@
       <c r="H78" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I78">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2930,7 +3091,7 @@
         <v>5702</v>
       </c>
       <c r="D79">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E79">
         <v>30</v>
@@ -2944,8 +3105,12 @@
       <c r="H79" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I79">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2956,7 +3121,7 @@
         <v>1820</v>
       </c>
       <c r="D80">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E80">
         <v>30</v>
@@ -2970,8 +3135,12 @@
       <c r="H80" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I80">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2982,7 +3151,7 @@
         <v>24514</v>
       </c>
       <c r="D81">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E81">
         <v>31</v>
@@ -2996,8 +3165,12 @@
       <c r="H81" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I81">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3008,7 +3181,7 @@
         <v>1371</v>
       </c>
       <c r="D82">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E82">
         <v>31</v>
@@ -3022,8 +3195,12 @@
       <c r="H82" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I82">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3034,7 +3211,7 @@
         <v>657</v>
       </c>
       <c r="D83">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E83">
         <v>31</v>
@@ -3048,8 +3225,12 @@
       <c r="H83" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I83">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3060,7 +3241,7 @@
         <v>52226</v>
       </c>
       <c r="D84">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E84">
         <v>31</v>
@@ -3074,8 +3255,12 @@
       <c r="H84" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I84">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3086,7 +3271,7 @@
         <v>236367</v>
       </c>
       <c r="D85">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E85">
         <v>32</v>
@@ -3100,8 +3285,12 @@
       <c r="H85" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I85">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3112,7 +3301,7 @@
         <v>20932</v>
       </c>
       <c r="D86">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E86">
         <v>32</v>
@@ -3126,8 +3315,12 @@
       <c r="H86" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I86">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3138,7 +3331,7 @@
         <v>54075</v>
       </c>
       <c r="D87">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E87">
         <v>33</v>
@@ -3152,8 +3345,12 @@
       <c r="H87" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I87">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3164,7 +3361,7 @@
         <v>41</v>
       </c>
       <c r="D88">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E88">
         <v>33</v>
@@ -3178,8 +3375,12 @@
       <c r="H88" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I88">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>87</v>
       </c>
@@ -3190,7 +3391,7 @@
         <v>41</v>
       </c>
       <c r="D89">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E89">
         <v>33</v>
@@ -3204,8 +3405,12 @@
       <c r="H89" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I89">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>88</v>
       </c>
@@ -3216,7 +3421,7 @@
         <v>863</v>
       </c>
       <c r="D90">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E90">
         <v>34</v>
@@ -3229,6 +3434,10 @@
       </c>
       <c r="H90" t="s">
         <v>110</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="0"/>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/input/data/dt/CAE_DT_armonizado.xlsx
+++ b/input/data/dt/CAE_DT_armonizado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\GitHub\proyecto_sindicalizacion\input\data\dt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379BE031-4C37-4D1F-A284-B5CECE403CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2784CA46-7310-4831-8B4E-4DEC04B42DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-1335" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="125">
   <si>
     <t>id_cae2</t>
   </si>
@@ -405,6 +405,9 @@
   </si>
   <si>
     <t>codigoactividad</t>
+  </si>
+  <si>
+    <t>CAENES_1d_4</t>
   </si>
 </sst>
 </file>
@@ -893,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42:D90"/>
+    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36:I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -904,7 +907,7 @@
     <col min="7" max="7" width="13.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -927,10 +930,13 @@
         <v>92</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -955,8 +961,11 @@
       <c r="H2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -981,8 +990,11 @@
       <c r="H3" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1007,8 +1019,11 @@
       <c r="H4" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1033,8 +1048,11 @@
       <c r="H5" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1059,8 +1077,11 @@
       <c r="H6" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1085,8 +1106,11 @@
       <c r="H7" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1111,8 +1135,11 @@
       <c r="H8" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1137,8 +1164,11 @@
       <c r="H9" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1163,8 +1193,11 @@
       <c r="H10" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1189,8 +1222,11 @@
       <c r="H11" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1215,8 +1251,11 @@
       <c r="H12" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1241,8 +1280,11 @@
       <c r="H13" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1267,8 +1309,11 @@
       <c r="H14" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1293,8 +1338,11 @@
       <c r="H15" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1319,8 +1367,11 @@
       <c r="H16" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1345,8 +1396,11 @@
       <c r="H17" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1371,8 +1425,11 @@
       <c r="H18" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1397,8 +1454,11 @@
       <c r="H19" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1423,8 +1483,11 @@
       <c r="H20" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1449,8 +1512,11 @@
       <c r="H21" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1475,8 +1541,11 @@
       <c r="H22" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1501,8 +1570,11 @@
       <c r="H23" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1527,8 +1599,11 @@
       <c r="H24" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1553,8 +1628,11 @@
       <c r="H25" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I25" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1579,8 +1657,11 @@
       <c r="H26" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I26" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1605,8 +1686,11 @@
       <c r="H27" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1631,8 +1715,11 @@
       <c r="H28" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1657,8 +1744,11 @@
       <c r="H29" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I29" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1683,8 +1773,11 @@
       <c r="H30" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I30" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1709,8 +1802,11 @@
       <c r="H31" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I31" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1733,6 +1829,9 @@
         <v>31</v>
       </c>
       <c r="H32" t="s">
+        <v>113</v>
+      </c>
+      <c r="I32" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1761,6 +1860,9 @@
       <c r="H33" t="s">
         <v>113</v>
       </c>
+      <c r="I33" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34">
@@ -1787,6 +1889,9 @@
       <c r="H34" t="s">
         <v>113</v>
       </c>
+      <c r="I34" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35">
@@ -1813,6 +1918,9 @@
       <c r="H35" t="s">
         <v>112</v>
       </c>
+      <c r="I35" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36">
@@ -1839,6 +1947,9 @@
       <c r="H36" t="s">
         <v>105</v>
       </c>
+      <c r="I36" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37">
@@ -1865,6 +1976,9 @@
       <c r="H37" t="s">
         <v>105</v>
       </c>
+      <c r="I37" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38">
@@ -1891,6 +2005,9 @@
       <c r="H38" t="s">
         <v>105</v>
       </c>
+      <c r="I38" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39">
@@ -1917,6 +2034,9 @@
       <c r="H39" t="s">
         <v>105</v>
       </c>
+      <c r="I39" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40">
@@ -1943,6 +2063,9 @@
       <c r="H40" t="s">
         <v>106</v>
       </c>
+      <c r="I40" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41">
@@ -1969,6 +2092,9 @@
       <c r="H41" t="s">
         <v>106</v>
       </c>
+      <c r="I41" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42">
@@ -1995,9 +2121,8 @@
       <c r="H42" t="s">
         <v>106</v>
       </c>
-      <c r="I42">
-        <f>D42-1</f>
-        <v>16</v>
+      <c r="I42" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
@@ -2025,9 +2150,8 @@
       <c r="H43" t="s">
         <v>115</v>
       </c>
-      <c r="I43">
-        <f t="shared" ref="I43:I90" si="0">D43-1</f>
-        <v>17</v>
+      <c r="I43" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
@@ -2055,9 +2179,8 @@
       <c r="H44" t="s">
         <v>115</v>
       </c>
-      <c r="I44">
-        <f t="shared" si="0"/>
-        <v>18</v>
+      <c r="I44" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
@@ -2085,9 +2208,8 @@
       <c r="H45" t="s">
         <v>115</v>
       </c>
-      <c r="I45">
-        <f t="shared" si="0"/>
-        <v>19</v>
+      <c r="I45" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
@@ -2115,9 +2237,8 @@
       <c r="H46" t="s">
         <v>116</v>
       </c>
-      <c r="I46">
-        <f t="shared" si="0"/>
-        <v>20</v>
+      <c r="I46" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
@@ -2145,9 +2266,8 @@
       <c r="H47" t="s">
         <v>116</v>
       </c>
-      <c r="I47">
-        <f t="shared" si="0"/>
-        <v>21</v>
+      <c r="I47" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
@@ -2175,9 +2295,8 @@
       <c r="H48" t="s">
         <v>116</v>
       </c>
-      <c r="I48">
-        <f t="shared" si="0"/>
-        <v>21</v>
+      <c r="I48" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
@@ -2205,9 +2324,8 @@
       <c r="H49" t="s">
         <v>116</v>
       </c>
-      <c r="I49">
-        <f t="shared" si="0"/>
-        <v>22</v>
+      <c r="I49" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
@@ -2235,9 +2353,8 @@
       <c r="H50" t="s">
         <v>116</v>
       </c>
-      <c r="I50">
-        <f t="shared" si="0"/>
-        <v>22</v>
+      <c r="I50" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
@@ -2265,9 +2382,8 @@
       <c r="H51" t="s">
         <v>107</v>
       </c>
-      <c r="I51">
-        <f t="shared" si="0"/>
-        <v>23</v>
+      <c r="I51" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
@@ -2295,9 +2411,8 @@
       <c r="H52" t="s">
         <v>107</v>
       </c>
-      <c r="I52">
-        <f t="shared" si="0"/>
-        <v>24</v>
+      <c r="I52" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
@@ -2325,9 +2440,8 @@
       <c r="H53" t="s">
         <v>117</v>
       </c>
-      <c r="I53">
-        <f t="shared" si="0"/>
-        <v>25</v>
+      <c r="I53" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
@@ -2355,9 +2469,8 @@
       <c r="H54" t="s">
         <v>117</v>
       </c>
-      <c r="I54">
-        <f t="shared" si="0"/>
-        <v>25</v>
+      <c r="I54" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
@@ -2385,9 +2498,8 @@
       <c r="H55" t="s">
         <v>117</v>
       </c>
-      <c r="I55">
-        <f t="shared" si="0"/>
-        <v>25</v>
+      <c r="I55" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
@@ -2415,9 +2527,8 @@
       <c r="H56" t="s">
         <v>117</v>
       </c>
-      <c r="I56">
-        <f t="shared" si="0"/>
-        <v>26</v>
+      <c r="I56" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
@@ -2445,9 +2556,8 @@
       <c r="H57" t="s">
         <v>117</v>
       </c>
-      <c r="I57">
-        <f t="shared" si="0"/>
-        <v>27</v>
+      <c r="I57" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
@@ -2475,9 +2585,8 @@
       <c r="H58" t="s">
         <v>117</v>
       </c>
-      <c r="I58">
-        <f t="shared" si="0"/>
-        <v>27</v>
+      <c r="I58" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
@@ -2505,9 +2614,8 @@
       <c r="H59" t="s">
         <v>118</v>
       </c>
-      <c r="I59">
-        <f t="shared" si="0"/>
-        <v>28</v>
+      <c r="I59" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
@@ -2535,9 +2643,8 @@
       <c r="H60" t="s">
         <v>118</v>
       </c>
-      <c r="I60">
-        <f t="shared" si="0"/>
-        <v>28</v>
+      <c r="I60" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
@@ -2565,9 +2672,8 @@
       <c r="H61" t="s">
         <v>118</v>
       </c>
-      <c r="I61">
-        <f t="shared" si="0"/>
-        <v>28</v>
+      <c r="I61" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
@@ -2595,9 +2701,8 @@
       <c r="H62" t="s">
         <v>114</v>
       </c>
-      <c r="I62">
-        <f t="shared" si="0"/>
-        <v>29</v>
+      <c r="I62" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
@@ -2625,9 +2730,8 @@
       <c r="H63" t="s">
         <v>119</v>
       </c>
-      <c r="I63">
-        <f t="shared" si="0"/>
-        <v>30</v>
+      <c r="I63" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
@@ -2655,9 +2759,8 @@
       <c r="H64" t="s">
         <v>119</v>
       </c>
-      <c r="I64">
-        <f t="shared" si="0"/>
-        <v>30</v>
+      <c r="I64" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
@@ -2685,9 +2788,8 @@
       <c r="H65" t="s">
         <v>119</v>
       </c>
-      <c r="I65">
-        <f t="shared" si="0"/>
-        <v>30</v>
+      <c r="I65" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
@@ -2715,9 +2817,8 @@
       <c r="H66" t="s">
         <v>119</v>
       </c>
-      <c r="I66">
-        <f t="shared" si="0"/>
-        <v>30</v>
+      <c r="I66" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
@@ -2745,9 +2846,8 @@
       <c r="H67" t="s">
         <v>119</v>
       </c>
-      <c r="I67">
-        <f t="shared" si="0"/>
-        <v>30</v>
+      <c r="I67" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
@@ -2775,9 +2875,8 @@
       <c r="H68" t="s">
         <v>119</v>
       </c>
-      <c r="I68">
-        <f t="shared" si="0"/>
-        <v>30</v>
+      <c r="I68" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
@@ -2805,9 +2904,8 @@
       <c r="H69" t="s">
         <v>119</v>
       </c>
-      <c r="I69">
-        <f t="shared" si="0"/>
-        <v>30</v>
+      <c r="I69" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
@@ -2835,9 +2933,8 @@
       <c r="H70" t="s">
         <v>2</v>
       </c>
-      <c r="I70">
-        <f t="shared" si="0"/>
-        <v>31</v>
+      <c r="I70" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
@@ -2865,9 +2962,8 @@
       <c r="H71" t="s">
         <v>2</v>
       </c>
-      <c r="I71">
-        <f t="shared" si="0"/>
-        <v>31</v>
+      <c r="I71" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
@@ -2895,9 +2991,8 @@
       <c r="H72" t="s">
         <v>2</v>
       </c>
-      <c r="I72">
-        <f t="shared" si="0"/>
-        <v>31</v>
+      <c r="I72" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
@@ -2925,9 +3020,8 @@
       <c r="H73" t="s">
         <v>2</v>
       </c>
-      <c r="I73">
-        <f t="shared" si="0"/>
-        <v>31</v>
+      <c r="I73" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
@@ -2955,9 +3049,8 @@
       <c r="H74" t="s">
         <v>2</v>
       </c>
-      <c r="I74">
-        <f t="shared" si="0"/>
-        <v>31</v>
+      <c r="I74" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
@@ -2985,9 +3078,8 @@
       <c r="H75" t="s">
         <v>2</v>
       </c>
-      <c r="I75">
-        <f t="shared" si="0"/>
-        <v>31</v>
+      <c r="I75" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
@@ -3015,9 +3107,8 @@
       <c r="H76" t="s">
         <v>111</v>
       </c>
-      <c r="I76">
-        <f t="shared" si="0"/>
-        <v>32</v>
+      <c r="I76" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
@@ -3045,9 +3136,8 @@
       <c r="H77" t="s">
         <v>104</v>
       </c>
-      <c r="I77">
-        <f t="shared" si="0"/>
-        <v>33</v>
+      <c r="I77" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
@@ -3075,9 +3165,8 @@
       <c r="H78" t="s">
         <v>120</v>
       </c>
-      <c r="I78">
-        <f t="shared" si="0"/>
-        <v>34</v>
+      <c r="I78" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
@@ -3105,9 +3194,8 @@
       <c r="H79" t="s">
         <v>120</v>
       </c>
-      <c r="I79">
-        <f t="shared" si="0"/>
-        <v>35</v>
+      <c r="I79" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
@@ -3135,9 +3223,8 @@
       <c r="H80" t="s">
         <v>120</v>
       </c>
-      <c r="I80">
-        <f t="shared" si="0"/>
-        <v>36</v>
+      <c r="I80" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
@@ -3165,9 +3252,8 @@
       <c r="H81" t="s">
         <v>109</v>
       </c>
-      <c r="I81">
-        <f t="shared" si="0"/>
-        <v>37</v>
+      <c r="I81" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.35">
@@ -3195,9 +3281,8 @@
       <c r="H82" t="s">
         <v>109</v>
       </c>
-      <c r="I82">
-        <f t="shared" si="0"/>
-        <v>37</v>
+      <c r="I82" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.35">
@@ -3225,9 +3310,8 @@
       <c r="H83" t="s">
         <v>109</v>
       </c>
-      <c r="I83">
-        <f t="shared" si="0"/>
-        <v>37</v>
+      <c r="I83" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.35">
@@ -3255,9 +3339,8 @@
       <c r="H84" t="s">
         <v>109</v>
       </c>
-      <c r="I84">
-        <f t="shared" si="0"/>
-        <v>37</v>
+      <c r="I84" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.35">
@@ -3285,9 +3368,8 @@
       <c r="H85" t="s">
         <v>103</v>
       </c>
-      <c r="I85">
-        <f t="shared" si="0"/>
-        <v>38</v>
+      <c r="I85" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
@@ -3315,9 +3397,8 @@
       <c r="H86" t="s">
         <v>103</v>
       </c>
-      <c r="I86">
-        <f t="shared" si="0"/>
-        <v>39</v>
+      <c r="I86" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
@@ -3345,9 +3426,8 @@
       <c r="H87" t="s">
         <v>103</v>
       </c>
-      <c r="I87">
-        <f t="shared" si="0"/>
-        <v>40</v>
+      <c r="I87" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.35">
@@ -3375,9 +3455,8 @@
       <c r="H88" t="s">
         <v>103</v>
       </c>
-      <c r="I88">
-        <f t="shared" si="0"/>
-        <v>40</v>
+      <c r="I88" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
@@ -3405,9 +3484,8 @@
       <c r="H89" t="s">
         <v>103</v>
       </c>
-      <c r="I89">
-        <f t="shared" si="0"/>
-        <v>40</v>
+      <c r="I89" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.35">
@@ -3435,9 +3513,8 @@
       <c r="H90" t="s">
         <v>110</v>
       </c>
-      <c r="I90">
-        <f t="shared" si="0"/>
-        <v>41</v>
+      <c r="I90" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/input/data/dt/CAE_DT_armonizado.xlsx
+++ b/input/data/dt/CAE_DT_armonizado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\GitHub\proyecto_sindicalizacion\input\data\dt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2784CA46-7310-4831-8B4E-4DEC04B42DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0820890F-B867-42AA-9539-BCE9E81486B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -896,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36:I39"/>
+    <sheetView tabSelected="1" topLeftCell="B73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I90" sqref="I90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3514,7 +3514,7 @@
         <v>110</v>
       </c>
       <c r="I90" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/input/data/dt/CAE_DT_armonizado.xlsx
+++ b/input/data/dt/CAE_DT_armonizado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\GitHub\proyecto_sindicalizacion\input\data\dt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0820890F-B867-42AA-9539-BCE9E81486B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C392762-0854-4078-B890-C9E79E3D0541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="129">
   <si>
     <t>id_cae2</t>
   </si>
@@ -408,6 +408,18 @@
   </si>
   <si>
     <t>CAENES_1d_4</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>HJ</t>
+  </si>
+  <si>
+    <t>LMN</t>
+  </si>
+  <si>
+    <t>RS</t>
   </si>
 </sst>
 </file>
@@ -565,7 +577,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -590,6 +602,7 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -896,8 +909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I90" sqref="I90"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I82" sqref="I82:I89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1919,7 +1932,7 @@
         <v>112</v>
       </c>
       <c r="I35" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
@@ -1948,7 +1961,7 @@
         <v>105</v>
       </c>
       <c r="I36" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
@@ -1977,7 +1990,7 @@
         <v>105</v>
       </c>
       <c r="I37" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
@@ -2006,7 +2019,7 @@
         <v>105</v>
       </c>
       <c r="I38" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
@@ -2035,7 +2048,7 @@
         <v>105</v>
       </c>
       <c r="I39" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
@@ -2238,7 +2251,7 @@
         <v>116</v>
       </c>
       <c r="I46" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
@@ -2267,7 +2280,7 @@
         <v>116</v>
       </c>
       <c r="I47" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
@@ -2296,7 +2309,7 @@
         <v>116</v>
       </c>
       <c r="I48" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
@@ -2325,7 +2338,7 @@
         <v>116</v>
       </c>
       <c r="I49" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
@@ -2354,7 +2367,7 @@
         <v>116</v>
       </c>
       <c r="I50" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
@@ -2441,7 +2454,7 @@
         <v>117</v>
       </c>
       <c r="I53" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
@@ -2470,7 +2483,7 @@
         <v>117</v>
       </c>
       <c r="I54" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
@@ -2499,7 +2512,7 @@
         <v>117</v>
       </c>
       <c r="I55" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
@@ -2528,7 +2541,7 @@
         <v>117</v>
       </c>
       <c r="I56" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
@@ -2557,7 +2570,7 @@
         <v>117</v>
       </c>
       <c r="I57" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
@@ -2586,7 +2599,7 @@
         <v>117</v>
       </c>
       <c r="I58" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
@@ -2702,7 +2715,7 @@
         <v>114</v>
       </c>
       <c r="I62" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
@@ -2731,7 +2744,7 @@
         <v>119</v>
       </c>
       <c r="I63" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
@@ -2760,7 +2773,7 @@
         <v>119</v>
       </c>
       <c r="I64" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
@@ -2789,7 +2802,7 @@
         <v>119</v>
       </c>
       <c r="I65" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
@@ -2818,7 +2831,7 @@
         <v>119</v>
       </c>
       <c r="I66" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
@@ -2847,7 +2860,7 @@
         <v>119</v>
       </c>
       <c r="I67" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
@@ -2876,7 +2889,7 @@
         <v>119</v>
       </c>
       <c r="I68" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
@@ -2905,7 +2918,7 @@
         <v>119</v>
       </c>
       <c r="I69" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
@@ -2934,7 +2947,7 @@
         <v>2</v>
       </c>
       <c r="I70" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
@@ -2963,7 +2976,7 @@
         <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
@@ -2992,7 +3005,7 @@
         <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
@@ -3021,7 +3034,7 @@
         <v>2</v>
       </c>
       <c r="I73" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
@@ -3050,7 +3063,7 @@
         <v>2</v>
       </c>
       <c r="I74" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
@@ -3079,7 +3092,7 @@
         <v>2</v>
       </c>
       <c r="I75" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
@@ -3253,7 +3266,7 @@
         <v>109</v>
       </c>
       <c r="I81" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.35">
@@ -3281,8 +3294,8 @@
       <c r="H82" t="s">
         <v>109</v>
       </c>
-      <c r="I82" t="s">
-        <v>109</v>
+      <c r="I82" s="22" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.35">
@@ -3310,8 +3323,8 @@
       <c r="H83" t="s">
         <v>109</v>
       </c>
-      <c r="I83" t="s">
-        <v>109</v>
+      <c r="I83" s="22" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.35">
@@ -3339,8 +3352,8 @@
       <c r="H84" t="s">
         <v>109</v>
       </c>
-      <c r="I84" t="s">
-        <v>109</v>
+      <c r="I84" s="22" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.35">
@@ -3368,8 +3381,8 @@
       <c r="H85" t="s">
         <v>103</v>
       </c>
-      <c r="I85" t="s">
-        <v>103</v>
+      <c r="I85" s="22" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
@@ -3397,8 +3410,8 @@
       <c r="H86" t="s">
         <v>103</v>
       </c>
-      <c r="I86" t="s">
-        <v>103</v>
+      <c r="I86" s="22" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
@@ -3426,8 +3439,8 @@
       <c r="H87" t="s">
         <v>103</v>
       </c>
-      <c r="I87" t="s">
-        <v>103</v>
+      <c r="I87" s="22" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.35">
@@ -3455,8 +3468,8 @@
       <c r="H88" t="s">
         <v>103</v>
       </c>
-      <c r="I88" t="s">
-        <v>103</v>
+      <c r="I88" s="22" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
@@ -3484,8 +3497,8 @@
       <c r="H89" t="s">
         <v>103</v>
       </c>
-      <c r="I89" t="s">
-        <v>103</v>
+      <c r="I89" s="22" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.35">
